--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F58300-93CA-4D6C-BAC6-256C5B290530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D483039-A996-4D9C-91BE-671EAEEB9EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -550,12 +550,12 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>45</v>
       </c>
@@ -566,7 +566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -580,222 +580,231 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D483039-A996-4D9C-91BE-671EAEEB9EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A27321-52FB-4323-B786-6A7F7F213E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,36 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
-    <t>4/1 早上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/1 中午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/1 晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/2 早上</t>
-  </si>
-  <si>
-    <t>4/2 中午</t>
-  </si>
-  <si>
-    <t>4/2 晚上</t>
-  </si>
-  <si>
-    <t>4/3 早上</t>
-  </si>
-  <si>
-    <t>4/3 中午</t>
-  </si>
-  <si>
-    <t>4/3 晚上</t>
-  </si>
-  <si>
     <t>4/4 早上</t>
   </si>
   <si>
@@ -184,6 +154,36 @@
   <si>
     <t>3st</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/3 早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/3 中午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/3 晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/16 早上</t>
+  </si>
+  <si>
+    <t>4/16 中午</t>
+  </si>
+  <si>
+    <t>4/16 晚上</t>
+  </si>
+  <si>
+    <t>4/17 早上</t>
+  </si>
+  <si>
+    <t>4/17 中午</t>
+  </si>
+  <si>
+    <t>4/17 晚上</t>
   </si>
 </sst>
 </file>
@@ -550,25 +550,25 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>46</v>
@@ -580,9 +580,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>61</v>
@@ -594,223 +594,332 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B10">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B13">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A27321-52FB-4323-B786-6A7F7F213E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FCFC2B-D514-4CA1-8F04-C87F342032F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -550,12 +550,12 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -566,7 +566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -580,7 +580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -594,7 +594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -608,7 +608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -664,7 +664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -678,7 +678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -692,12 +692,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -711,7 +711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -725,7 +725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -739,7 +739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -753,12 +753,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -772,147 +772,156 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FCFC2B-D514-4CA1-8F04-C87F342032F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B6AD2A-72B8-459D-BD51-5F284D0647F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -800,6 +800,15 @@
       <c r="A21" t="s">
         <v>18</v>
       </c>
+      <c r="B21">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B6AD2A-72B8-459D-BD51-5F284D0647F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCC98B8-C0E2-4446-B573-86320A1B239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
+    <workbookView xWindow="4540" yWindow="2570" windowWidth="19200" windowHeight="11460" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -550,12 +550,12 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -566,7 +566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -580,7 +580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -594,7 +594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -608,7 +608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -664,7 +664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -678,7 +678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -692,12 +692,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -711,7 +711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -725,7 +725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -739,7 +739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -753,12 +753,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -772,7 +772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -786,17 +786,35 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -810,127 +828,145 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>47</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCC98B8-C0E2-4446-B573-86320A1B239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C32B92-3D34-41FB-9996-1FCE51DFB54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4540" yWindow="2570" windowWidth="19200" windowHeight="11460" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
   </bookViews>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322C3FA9-5C72-4EB8-985F-52A2BB36C6B7}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -865,6 +865,15 @@
       <c r="A25" t="s">
         <v>10</v>
       </c>
+      <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C32B92-3D34-41FB-9996-1FCE51DFB54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A68B3E-0DD6-4996-9354-BBDF1C9F3AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="2570" windowWidth="19200" windowHeight="11460" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -550,12 +550,12 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -566,7 +566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -580,7 +580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -594,7 +594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -608,7 +608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -664,7 +664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -678,7 +678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -692,12 +692,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -711,7 +711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -725,7 +725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -739,7 +739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -753,12 +753,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -772,7 +772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -786,7 +786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -800,7 +800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -814,7 +814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -828,7 +828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -842,7 +842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -856,12 +856,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -875,107 +875,116 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A68B3E-0DD6-4996-9354-BBDF1C9F3AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B1839A-915C-4E6E-AAA7-EE2B101AD619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
   </bookViews>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322C3FA9-5C72-4EB8-985F-52A2BB36C6B7}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -903,10 +903,28 @@
       <c r="A29" t="s">
         <v>24</v>
       </c>
+      <c r="B29">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
+      </c>
+      <c r="B30">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B1839A-915C-4E6E-AAA7-EE2B101AD619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA2C469-B449-4B5E-9269-F7F26DF27BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -549,13 +549,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322C3FA9-5C72-4EB8-985F-52A2BB36C6B7}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -566,7 +566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -580,7 +580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -594,7 +594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -608,7 +608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -664,7 +664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -678,7 +678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -692,12 +692,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -711,7 +711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -725,7 +725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -739,7 +739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -753,12 +753,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -772,7 +772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -786,7 +786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -800,7 +800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -814,7 +814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -828,7 +828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -842,7 +842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -856,12 +856,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -875,12 +875,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -894,12 +894,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -913,7 +913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -927,82 +927,136 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>46</v>
+      </c>
+      <c r="D36">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>47</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA2C469-B449-4B5E-9269-F7F26DF27BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36AAD34-14F0-4535-9730-CB2CA9F17A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -550,12 +550,12 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -566,7 +566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -580,7 +580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -594,7 +594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -608,7 +608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -664,7 +664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -678,7 +678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -692,12 +692,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -711,7 +711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -725,7 +725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -739,7 +739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -753,12 +753,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -772,7 +772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -786,7 +786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -800,7 +800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -814,7 +814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -828,7 +828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -842,7 +842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -856,12 +856,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -875,12 +875,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -894,12 +894,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -913,7 +913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -927,12 +927,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -946,7 +946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -960,17 +960,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -984,7 +984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -998,7 +998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1026,37 +1026,64 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>42</v>
+      </c>
+      <c r="D41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36AAD34-14F0-4535-9730-CB2CA9F17A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E439E6-984A-4A52-9466-5A0828EA045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
+    <workbookView xWindow="4540" yWindow="2570" windowWidth="19200" windowHeight="11460" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -549,13 +549,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322C3FA9-5C72-4EB8-985F-52A2BB36C6B7}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -566,7 +566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -580,7 +580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -594,7 +594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -608,7 +608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -664,7 +664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -678,7 +678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -692,12 +692,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -711,7 +711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -725,7 +725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -739,7 +739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -753,12 +753,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -772,7 +772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -786,7 +786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -800,7 +800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -814,7 +814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -828,7 +828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -842,7 +842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -856,12 +856,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -875,12 +875,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -894,12 +894,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -913,7 +913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -927,12 +927,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -946,7 +946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -960,17 +960,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -984,7 +984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -998,7 +998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1068,22 +1068,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>38</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>47</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/心律.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E17371-D7C7-49E5-B7A8-B8C5019FA732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2BB462-9E12-4513-AFA5-28C312B826C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="3940" windowWidth="19200" windowHeight="11460" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{0DB25F23-3130-40E1-86B7-82CA2D1A2CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -9544,11 +9544,11 @@
         <v>46.333333333333336</v>
       </c>
       <c r="F2">
-        <f>$N$2</f>
+        <f t="shared" ref="F2:F46" si="0">$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G2">
-        <f>$O$2</f>
+        <f t="shared" ref="G2:G46" si="1">$O$2</f>
         <v>28.602915688599012</v>
       </c>
       <c r="H2">
@@ -9556,11 +9556,11 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>$N$4</f>
+        <f t="shared" ref="I2:I46" si="2">$N$4</f>
         <v>9.1281365991352192</v>
       </c>
       <c r="J2">
-        <f>$O$4</f>
+        <f t="shared" ref="J2:J46" si="3">$O$4</f>
         <v>0</v>
       </c>
       <c r="K2">
@@ -9646,27 +9646,27 @@
         <v>46</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E46" si="0">AVERAGE(B3:D3)</f>
+        <f t="shared" ref="E3:E46" si="4">AVERAGE(B3:D3)</f>
         <v>50.666666666666664</v>
       </c>
       <c r="F3">
-        <f>$N$2</f>
+        <f t="shared" si="0"/>
         <v>60.641528755845414</v>
       </c>
       <c r="G3">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H46" si="1">MAX(B3:D3)-MIN(B3:D3)</f>
+        <f t="shared" ref="H3:H46" si="5">MAX(B3:D3)-MIN(B3:D3)</f>
         <v>16</v>
       </c>
       <c r="I3">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J3">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K3" t="s">
@@ -9689,11 +9689,11 @@
         <v>40.333333333333336</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R46" si="2">$N$7</f>
+        <f t="shared" ref="R3:R44" si="6">$N$7</f>
         <v>58.279120324785254</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S46" si="3">$O$7</f>
+        <f t="shared" ref="S3:S44" si="7">$O$7</f>
         <v>29.922430062811632</v>
       </c>
       <c r="T3">
@@ -9701,35 +9701,35 @@
         <v>1</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U46" si="4">$N$9</f>
+        <f t="shared" ref="U3:U44" si="8">$N$9</f>
         <v>4.8321706030765688</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V46" si="5">O95</f>
+        <f t="shared" ref="V3:V44" si="9">O95</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X10" si="6">Q3</f>
+        <f t="shared" ref="X3:X10" si="10">Q3</f>
         <v>40.333333333333336</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y46" si="7">$N$12</f>
+        <f t="shared" ref="Y3:Y43" si="11">$N$12</f>
         <v>56.426981989646755</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z46" si="8">$O$12</f>
+        <f t="shared" ref="Z3:Z43" si="12">$O$12</f>
         <v>31.096827534162749</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA10" si="9">T3</f>
+        <f t="shared" ref="AA3:AA10" si="13">T3</f>
         <v>1</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB46" si="10">$N$14</f>
+        <f t="shared" ref="AB3:AB43" si="14">$N$14</f>
         <v>4.8636677751513142</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC46" si="11">$O$14</f>
+        <f t="shared" ref="AC3:AC43" si="15">$O$14</f>
         <v>0</v>
       </c>
     </row>
@@ -9747,27 +9747,27 @@
         <v>40</v>
       </c>
       <c r="E4">
+        <f t="shared" si="4"/>
+        <v>40.333333333333336</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>40.333333333333336</v>
-      </c>
-      <c r="F4">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G4">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I4">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J4">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K4">
@@ -9791,51 +9791,51 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q37" si="12">E5</f>
+        <f t="shared" ref="Q4:Q37" si="16">E5</f>
         <v>37.333333333333336</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>58.279120324785254</v>
       </c>
       <c r="S4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.922430062811632</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T37" si="13">H5</f>
+        <f t="shared" ref="T4:T37" si="17">H5</f>
         <v>2</v>
       </c>
       <c r="U4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8321706030765688</v>
       </c>
       <c r="V4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>37.333333333333336</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>56.426981989646755</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>31.096827534162749</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.8636677751513142</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -9853,75 +9853,75 @@
         <v>36</v>
       </c>
       <c r="E5">
+        <f t="shared" si="4"/>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>37.333333333333336</v>
-      </c>
-      <c r="F5">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G5">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I5">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J5">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q5">
+        <f t="shared" si="16"/>
+        <v>44</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z5">
         <f t="shared" si="12"/>
-        <v>44</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T5">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA5">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="U5">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
       <c r="AB5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.8636677751513142</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -9939,27 +9939,27 @@
         <v>45</v>
       </c>
       <c r="E6">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="F6">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G6">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I6">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J6">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" t="s">
@@ -9978,51 +9978,51 @@
         <v>55</v>
       </c>
       <c r="Q6">
+        <f t="shared" si="16"/>
+        <v>38.666666666666664</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="10"/>
+        <v>38.666666666666664</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z6">
         <f t="shared" si="12"/>
-        <v>38.666666666666664</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T6">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA6">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="6"/>
-        <v>38.666666666666664</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
       <c r="AB6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.8636677751513142</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10040,27 +10040,27 @@
         <v>38</v>
       </c>
       <c r="E7">
+        <f t="shared" si="4"/>
+        <v>38.666666666666664</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>38.666666666666664</v>
-      </c>
-      <c r="F7">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G7">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I7">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J7">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7">
@@ -10084,51 +10084,51 @@
         <v>29.922430062811632</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="16"/>
+        <v>50.333333333333336</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="10"/>
+        <v>50.333333333333336</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z7">
         <f t="shared" si="12"/>
-        <v>50.333333333333336</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T7">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA7">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="6"/>
-        <v>50.333333333333336</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
       <c r="AB7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.8636677751513142</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10146,27 +10146,27 @@
         <v>50</v>
       </c>
       <c r="E8">
+        <f t="shared" si="4"/>
+        <v>50.333333333333336</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>50.333333333333336</v>
-      </c>
-      <c r="F8">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G8">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I8">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J8">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" t="s">
@@ -10185,51 +10185,51 @@
         <v>55</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="16"/>
+        <v>47.666666666666664</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="10"/>
+        <v>47.666666666666664</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="12"/>
-        <v>47.666666666666664</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T8">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA8">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="U8">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="6"/>
-        <v>47.666666666666664</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
       <c r="AB8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.8636677751513142</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10247,27 +10247,27 @@
         <v>50</v>
       </c>
       <c r="E9">
+        <f t="shared" si="4"/>
+        <v>47.666666666666664</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>47.666666666666664</v>
-      </c>
-      <c r="F9">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G9">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I9">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J9">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9">
@@ -10291,51 +10291,51 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="16"/>
+        <v>44</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z9">
         <f t="shared" si="12"/>
-        <v>44</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T9">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA9">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
       <c r="AB9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.8636677751513142</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10353,75 +10353,75 @@
         <v>45</v>
       </c>
       <c r="E10">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="F10">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G10">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I10">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J10">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q10">
+        <f t="shared" si="16"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="10"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="12"/>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T10">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="6"/>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
       <c r="AB10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.8636677751513142</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10439,27 +10439,27 @@
         <v>43</v>
       </c>
       <c r="E11">
+        <f t="shared" si="4"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="F11">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G11">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I11">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J11">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" t="s">
@@ -10478,27 +10478,27 @@
         <v>55</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>58.333333333333336</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>58.279120324785254</v>
       </c>
       <c r="S11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.922430062811632</v>
       </c>
       <c r="T11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8321706030765688</v>
       </c>
       <c r="V11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X11">
@@ -10506,11 +10506,11 @@
         <v>42.666666666666664</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>56.426981989646755</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>31.096827534162749</v>
       </c>
       <c r="AA11">
@@ -10518,11 +10518,11 @@
         <v>1</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.8636677751513142</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10540,27 +10540,27 @@
         <v>58</v>
       </c>
       <c r="E12">
+        <f t="shared" si="4"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="F12">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G12">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I12">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J12">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12">
@@ -10584,51 +10584,51 @@
         <v>31.096827534162749</v>
       </c>
       <c r="Q12">
+        <f t="shared" si="16"/>
+        <v>42.666666666666664</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ref="X12:X43" si="18">Q13</f>
+        <v>46.333333333333336</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z12">
         <f t="shared" si="12"/>
-        <v>42.666666666666664</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f t="shared" ref="X12:X43" si="14">Q13</f>
-        <v>46.333333333333336</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="8"/>
         <v>31.096827534162749</v>
       </c>
       <c r="AA12">
-        <f t="shared" ref="AA12:AA44" si="15">T13</f>
+        <f t="shared" ref="AA12:AA43" si="19">T13</f>
         <v>4</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.8636677751513142</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10646,27 +10646,27 @@
         <v>42</v>
       </c>
       <c r="E13">
+        <f t="shared" si="4"/>
+        <v>42.666666666666664</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>42.666666666666664</v>
-      </c>
-      <c r="F13">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G13">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I13">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J13">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" t="s">
@@ -10685,51 +10685,51 @@
         <v>55</v>
       </c>
       <c r="Q13">
+        <f t="shared" si="16"/>
+        <v>46.333333333333336</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z13">
         <f t="shared" si="12"/>
-        <v>46.333333333333336</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X13">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AB13">
         <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA13">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC13">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10747,27 +10747,27 @@
         <v>47</v>
       </c>
       <c r="E14">
+        <f t="shared" si="4"/>
+        <v>46.333333333333336</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>46.333333333333336</v>
-      </c>
-      <c r="F14">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G14">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I14">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J14">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14">
@@ -10791,51 +10791,51 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <f t="shared" si="16"/>
+        <v>39</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="18"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="12"/>
-        <v>39</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X14">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AB14">
         <f t="shared" si="14"/>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA14">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC14">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10853,75 +10853,75 @@
         <v>38</v>
       </c>
       <c r="E15">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="F15">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G15">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I15">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J15">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15">
+        <f t="shared" si="16"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z15">
         <f t="shared" si="12"/>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X15">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="14"/>
-        <v>50</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA15">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC15">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10939,75 +10939,75 @@
         <v>42</v>
       </c>
       <c r="E16">
+        <f t="shared" si="4"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="F16">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G16">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I16">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J16">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q16">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z16">
         <f t="shared" si="12"/>
-        <v>50</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
         <f t="shared" si="14"/>
-        <v>46</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA16">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11025,75 +11025,75 @@
         <v>51</v>
       </c>
       <c r="E17">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F17">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G17">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I17">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J17">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q17">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="18"/>
+        <v>39.666666666666664</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z17">
         <f t="shared" si="12"/>
-        <v>46</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X17">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AB17">
         <f t="shared" si="14"/>
-        <v>39.666666666666664</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA17">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC17">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11111,75 +11111,75 @@
         <v>46</v>
       </c>
       <c r="E18">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="F18">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G18">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J18">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q18">
+        <f t="shared" si="16"/>
+        <v>39.666666666666664</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z18">
         <f t="shared" si="12"/>
-        <v>39.666666666666664</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X18">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="14"/>
-        <v>50</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA18">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC18">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11197,75 +11197,75 @@
         <v>40</v>
       </c>
       <c r="E19">
+        <f t="shared" si="4"/>
+        <v>39.666666666666664</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
-        <v>39.666666666666664</v>
-      </c>
-      <c r="F19">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G19">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I19">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J19">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q19">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="18"/>
+        <v>54.333333333333336</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z19">
         <f t="shared" si="12"/>
-        <v>50</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="13"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X19">
+      <c r="AB19">
         <f t="shared" si="14"/>
-        <v>54.333333333333336</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA19">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC19">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11283,75 +11283,75 @@
         <v>48</v>
       </c>
       <c r="E20">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F20">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G20">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I20">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J20">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q20">
+        <f t="shared" si="16"/>
+        <v>54.333333333333336</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="18"/>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z20">
         <f t="shared" si="12"/>
-        <v>54.333333333333336</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X20">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AB20">
         <f t="shared" si="14"/>
-        <v>40.666666666666664</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA20">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC20">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11369,75 +11369,75 @@
         <v>53</v>
       </c>
       <c r="E21">
+        <f t="shared" si="4"/>
+        <v>54.333333333333336</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
-        <v>54.333333333333336</v>
-      </c>
-      <c r="F21">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G21">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I21">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J21">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q21">
+        <f t="shared" si="16"/>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="18"/>
+        <v>48.666666666666664</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z21">
         <f t="shared" si="12"/>
-        <v>40.666666666666664</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="13"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X21">
+      <c r="AB21">
         <f t="shared" si="14"/>
-        <v>48.666666666666664</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA21">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC21">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11455,75 +11455,75 @@
         <v>40</v>
       </c>
       <c r="E22">
+        <f t="shared" si="4"/>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
-        <v>40.666666666666664</v>
-      </c>
-      <c r="F22">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G22">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I22">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J22">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q22">
+        <f t="shared" si="16"/>
+        <v>48.666666666666664</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="18"/>
+        <v>41.333333333333336</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z22">
         <f t="shared" si="12"/>
-        <v>48.666666666666664</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X22">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="AB22">
         <f t="shared" si="14"/>
-        <v>41.333333333333336</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA22">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC22">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11541,75 +11541,75 @@
         <v>49</v>
       </c>
       <c r="E23">
+        <f t="shared" si="4"/>
+        <v>48.666666666666664</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
-        <v>48.666666666666664</v>
-      </c>
-      <c r="F23">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G23">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I23">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J23">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q23">
+        <f t="shared" si="16"/>
+        <v>41.333333333333336</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="18"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z23">
         <f t="shared" si="12"/>
-        <v>41.333333333333336</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X23">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AB23">
         <f t="shared" si="14"/>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA23">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC23">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11627,75 +11627,75 @@
         <v>43</v>
       </c>
       <c r="E24">
+        <f t="shared" si="4"/>
+        <v>41.333333333333336</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
-        <v>41.333333333333336</v>
-      </c>
-      <c r="F24">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G24">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I24">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J24">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q24">
+        <f t="shared" si="16"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z24">
         <f t="shared" si="12"/>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X24">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AB24">
         <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA24">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC24">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11713,75 +11713,75 @@
         <v>42</v>
       </c>
       <c r="E25">
+        <f t="shared" si="4"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="F25">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G25">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I25">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J25">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q25">
+        <f t="shared" si="16"/>
+        <v>39</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="18"/>
+        <v>48.333333333333336</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z25">
         <f t="shared" si="12"/>
-        <v>39</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="13"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="U25">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X25">
+      <c r="AB25">
         <f t="shared" si="14"/>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA25">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC25">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11799,75 +11799,75 @@
         <v>40</v>
       </c>
       <c r="E26">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="F26">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G26">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I26">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J26">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q26">
+        <f t="shared" si="16"/>
+        <v>48.333333333333336</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="18"/>
+        <v>45.333333333333336</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z26">
         <f t="shared" si="12"/>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X26">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AB26">
         <f t="shared" si="14"/>
-        <v>45.333333333333336</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA26">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC26">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11885,75 +11885,75 @@
         <v>49</v>
       </c>
       <c r="E27">
+        <f t="shared" si="4"/>
+        <v>48.333333333333336</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="0"/>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="F27">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G27">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I27">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J27">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q27">
+        <f t="shared" si="16"/>
+        <v>45.333333333333336</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="18"/>
+        <v>40.333333333333336</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z27">
         <f t="shared" si="12"/>
-        <v>45.333333333333336</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X27">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="AB27">
         <f t="shared" si="14"/>
-        <v>40.333333333333336</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA27">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC27">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11971,75 +11971,75 @@
         <v>45</v>
       </c>
       <c r="E28">
+        <f t="shared" si="4"/>
+        <v>45.333333333333336</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
-        <v>45.333333333333336</v>
-      </c>
-      <c r="F28">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G28">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I28">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J28">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q28">
+        <f t="shared" si="16"/>
+        <v>40.333333333333336</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="18"/>
+        <v>44.666666666666664</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z28">
         <f t="shared" si="12"/>
-        <v>40.333333333333336</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="13"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="U28">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X28">
+      <c r="AB28">
         <f t="shared" si="14"/>
-        <v>44.666666666666664</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA28">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC28">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12057,75 +12057,75 @@
         <v>39</v>
       </c>
       <c r="E29">
+        <f t="shared" si="4"/>
+        <v>40.333333333333336</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="0"/>
-        <v>40.333333333333336</v>
-      </c>
-      <c r="F29">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G29">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I29">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J29">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q29">
+        <f t="shared" si="16"/>
+        <v>44.666666666666664</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="18"/>
+        <v>41</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z29">
         <f t="shared" si="12"/>
-        <v>44.666666666666664</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X29">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AB29">
         <f t="shared" si="14"/>
-        <v>41</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA29">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC29">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12143,75 +12143,75 @@
         <v>43</v>
       </c>
       <c r="E30">
+        <f t="shared" si="4"/>
+        <v>44.666666666666664</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="0"/>
-        <v>44.666666666666664</v>
-      </c>
-      <c r="F30">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G30">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I30">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J30">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q30">
+        <f t="shared" si="16"/>
+        <v>41</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="18"/>
+        <v>38.333333333333336</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z30">
         <f t="shared" si="12"/>
-        <v>41</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X30">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AB30">
         <f t="shared" si="14"/>
-        <v>38.333333333333336</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA30">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC30">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12229,75 +12229,75 @@
         <v>42</v>
       </c>
       <c r="E31">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="F31">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G31">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I31">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J31">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q31">
+        <f t="shared" si="16"/>
+        <v>38.333333333333336</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z31">
         <f t="shared" si="12"/>
-        <v>38.333333333333336</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X31">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AB31">
         <f t="shared" si="14"/>
-        <v>47</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA31">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC31">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12315,75 +12315,75 @@
         <v>39</v>
       </c>
       <c r="E32">
+        <f t="shared" si="4"/>
+        <v>38.333333333333336</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="0"/>
-        <v>38.333333333333336</v>
-      </c>
-      <c r="F32">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G32">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I32">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J32">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q32">
+        <f t="shared" si="16"/>
+        <v>47</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="18"/>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z32">
         <f t="shared" si="12"/>
-        <v>47</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X32">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AB32">
         <f t="shared" si="14"/>
-        <v>40.666666666666664</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA32">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC32">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12401,75 +12401,75 @@
         <v>47</v>
       </c>
       <c r="E33">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="F33">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G33">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I33">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J33">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q33">
+        <f t="shared" si="16"/>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="18"/>
+        <v>42.333333333333336</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z33">
         <f t="shared" si="12"/>
-        <v>40.666666666666664</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="13"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U33">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X33">
+      <c r="AB33">
         <f t="shared" si="14"/>
-        <v>42.333333333333336</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA33">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC33">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12487,75 +12487,75 @@
         <v>40</v>
       </c>
       <c r="E34">
+        <f t="shared" si="4"/>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="0"/>
-        <v>40.666666666666664</v>
-      </c>
-      <c r="F34">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G34">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I34">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J34">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q34">
+        <f t="shared" si="16"/>
+        <v>42.333333333333336</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="18"/>
+        <v>45.666666666666664</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z34">
         <f t="shared" si="12"/>
-        <v>42.333333333333336</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="13"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U34">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X34">
+      <c r="AB34">
         <f t="shared" si="14"/>
-        <v>45.666666666666664</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA34">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC34">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12573,75 +12573,75 @@
         <v>42</v>
       </c>
       <c r="E35">
+        <f t="shared" si="4"/>
+        <v>42.333333333333336</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="0"/>
-        <v>42.333333333333336</v>
-      </c>
-      <c r="F35">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G35">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I35">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J35">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q35">
+        <f t="shared" si="16"/>
+        <v>45.666666666666664</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="18"/>
+        <v>42.666666666666664</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z35">
         <f t="shared" si="12"/>
-        <v>45.666666666666664</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="13"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U35">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X35">
+      <c r="AB35">
         <f t="shared" si="14"/>
-        <v>42.666666666666664</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z35">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA35">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC35">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12659,75 +12659,75 @@
         <v>46</v>
       </c>
       <c r="E36">
+        <f t="shared" si="4"/>
+        <v>45.666666666666664</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="0"/>
-        <v>45.666666666666664</v>
-      </c>
-      <c r="F36">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G36">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I36">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J36">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q36">
+        <f t="shared" si="16"/>
+        <v>42.666666666666664</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z36">
         <f t="shared" si="12"/>
-        <v>42.666666666666664</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X36">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="AB36">
         <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA36">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC36">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12745,75 +12745,75 @@
         <v>42</v>
       </c>
       <c r="E37">
+        <f t="shared" si="4"/>
+        <v>42.666666666666664</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="0"/>
-        <v>42.666666666666664</v>
-      </c>
-      <c r="F37">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G37">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I37">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J37">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q37">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>58.279120324785254</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="7"/>
+        <v>29.922430062811632</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="8"/>
+        <v>4.8321706030765688</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="18"/>
+        <v>41</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z37">
         <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="2"/>
-        <v>58.279120324785254</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="3"/>
-        <v>29.922430062811632</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="4"/>
-        <v>4.8321706030765688</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X37">
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
         <f t="shared" si="14"/>
-        <v>41</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA37">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC37">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12831,27 +12831,27 @@
         <v>42</v>
       </c>
       <c r="E38">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F38">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G38">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I38">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J38">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q38">
@@ -12859,11 +12859,11 @@
         <v>41</v>
       </c>
       <c r="R38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>58.279120324785254</v>
       </c>
       <c r="S38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.922430062811632</v>
       </c>
       <c r="T38">
@@ -12871,35 +12871,35 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8321706030765688</v>
       </c>
       <c r="V38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X38">
+        <f t="shared" si="18"/>
+        <v>42.333333333333336</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="12"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AB38">
         <f t="shared" si="14"/>
-        <v>42.333333333333336</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA38">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC38">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12917,75 +12917,75 @@
         <v>60</v>
       </c>
       <c r="E39">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="F39">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G39">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I39">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J39">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q39">
-        <f t="shared" ref="Q39:Q43" si="16">E41</f>
+        <f t="shared" ref="Q39:Q43" si="20">E41</f>
         <v>42.333333333333336</v>
       </c>
       <c r="R39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>58.279120324785254</v>
       </c>
       <c r="S39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.922430062811632</v>
       </c>
       <c r="T39">
-        <f t="shared" ref="T39:T44" si="17">H41</f>
+        <f t="shared" ref="T39:T44" si="21">H41</f>
         <v>1</v>
       </c>
       <c r="U39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8321706030765688</v>
       </c>
       <c r="V39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X39">
+        <f t="shared" si="18"/>
+        <v>51.333333333333336</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="12"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AB39">
         <f t="shared" si="14"/>
-        <v>51.333333333333336</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z39">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA39">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC39">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13003,75 +13003,75 @@
         <v>41</v>
       </c>
       <c r="E40">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="F40">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G40">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J40">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>51.333333333333336</v>
       </c>
       <c r="R40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>58.279120324785254</v>
       </c>
       <c r="S40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.922430062811632</v>
       </c>
       <c r="T40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8321706030765688</v>
       </c>
       <c r="V40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X40">
+        <f t="shared" si="18"/>
+        <v>39.333333333333336</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="12"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="AB40">
         <f t="shared" si="14"/>
-        <v>39.333333333333336</v>
-      </c>
-      <c r="Y40">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z40">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA40">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC40">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AB40">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC40">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13089,75 +13089,75 @@
         <v>42</v>
       </c>
       <c r="E41">
+        <f t="shared" si="4"/>
+        <v>42.333333333333336</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="0"/>
-        <v>42.333333333333336</v>
-      </c>
-      <c r="F41">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G41">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I41">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J41">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>39.333333333333336</v>
       </c>
       <c r="R41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>58.279120324785254</v>
       </c>
       <c r="S41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.922430062811632</v>
       </c>
       <c r="T41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="U41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8321706030765688</v>
       </c>
       <c r="V41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X41">
+        <f t="shared" si="18"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="12"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="AB41">
         <f t="shared" si="14"/>
-        <v>43.333333333333336</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z41">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA41">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC41">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13175,75 +13175,75 @@
         <v>50</v>
       </c>
       <c r="E42">
+        <f t="shared" si="4"/>
+        <v>51.333333333333336</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="0"/>
-        <v>51.333333333333336</v>
-      </c>
-      <c r="F42">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G42">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I42">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J42">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>43.333333333333336</v>
       </c>
       <c r="R42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>58.279120324785254</v>
       </c>
       <c r="S42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.922430062811632</v>
       </c>
       <c r="T42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="U42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8321706030765688</v>
       </c>
       <c r="V42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X42">
+        <f t="shared" si="18"/>
+        <v>51.666666666666664</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="12"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AB42">
         <f t="shared" si="14"/>
-        <v>51.666666666666664</v>
-      </c>
-      <c r="Y42">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z42">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA42">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC42">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13261,75 +13261,75 @@
         <v>41</v>
       </c>
       <c r="E43">
+        <f t="shared" si="4"/>
+        <v>39.333333333333336</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="0"/>
-        <v>39.333333333333336</v>
-      </c>
-      <c r="F43">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G43">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I43">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J43">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>51.666666666666664</v>
       </c>
       <c r="R43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>58.279120324785254</v>
       </c>
       <c r="S43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.922430062811632</v>
       </c>
       <c r="T43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="U43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8321706030765688</v>
       </c>
       <c r="V43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X43">
+        <f t="shared" si="18"/>
+        <v>41.333333333333336</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="11"/>
+        <v>56.426981989646755</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="12"/>
+        <v>31.096827534162749</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AB43">
         <f t="shared" si="14"/>
-        <v>41.333333333333336</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" si="7"/>
-        <v>56.426981989646755</v>
-      </c>
-      <c r="Z43">
-        <f t="shared" si="8"/>
-        <v>31.096827534162749</v>
-      </c>
-      <c r="AA43">
+        <v>4.8636677751513142</v>
+      </c>
+      <c r="AC43">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AB43">
-        <f t="shared" si="10"/>
-        <v>4.8636677751513142</v>
-      </c>
-      <c r="AC43">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13347,27 +13347,27 @@
         <v>43</v>
       </c>
       <c r="E44">
+        <f t="shared" si="4"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="0"/>
-        <v>43.333333333333336</v>
-      </c>
-      <c r="F44">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G44">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I44">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J44">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q44">
@@ -13375,23 +13375,23 @@
         <v>41.333333333333336</v>
       </c>
       <c r="R44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>58.279120324785254</v>
       </c>
       <c r="S44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.922430062811632</v>
       </c>
       <c r="T44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8321706030765688</v>
       </c>
       <c r="V44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13409,15 +13409,15 @@
         <v>52</v>
       </c>
       <c r="E45">
+        <f t="shared" si="4"/>
+        <v>51.666666666666664</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="0"/>
-        <v>51.666666666666664</v>
-      </c>
-      <c r="F45">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G45">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H45">
@@ -13425,11 +13425,11 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J45">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13447,27 +13447,27 @@
         <v>42</v>
       </c>
       <c r="E46">
+        <f t="shared" si="4"/>
+        <v>41.333333333333336</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="0"/>
-        <v>41.333333333333336</v>
-      </c>
-      <c r="F46">
-        <f>$N$2</f>
         <v>60.641528755845414</v>
       </c>
       <c r="G46">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>28.602915688599012</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I46">
-        <f>$N$4</f>
+        <f t="shared" si="2"/>
         <v>9.1281365991352192</v>
       </c>
       <c r="J46">
-        <f>$O$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
